--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.504599666666667</v>
+        <v>8.133160666666667</v>
       </c>
       <c r="H2">
-        <v>13.513799</v>
+        <v>24.399482</v>
       </c>
       <c r="I2">
-        <v>0.2870666703033801</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="J2">
-        <v>0.2870666703033801</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.66677566666667</v>
+        <v>50.86142466666666</v>
       </c>
       <c r="N2">
-        <v>101.000327</v>
+        <v>152.584274</v>
       </c>
       <c r="O2">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613803</v>
       </c>
       <c r="P2">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613804</v>
       </c>
       <c r="Q2">
-        <v>151.6553464458081</v>
+        <v>413.6641385495631</v>
       </c>
       <c r="R2">
-        <v>1364.898118012273</v>
+        <v>3722.977246946068</v>
       </c>
       <c r="S2">
-        <v>0.07477233487784031</v>
+        <v>0.1329319026224182</v>
       </c>
       <c r="T2">
-        <v>0.07477233487784034</v>
+        <v>0.1329319026224183</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.504599666666667</v>
+        <v>8.133160666666667</v>
       </c>
       <c r="H3">
-        <v>13.513799</v>
+        <v>24.399482</v>
       </c>
       <c r="I3">
-        <v>0.2870666703033801</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="J3">
-        <v>0.2870666703033801</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.68302400000001</v>
+        <v>43.683024</v>
       </c>
       <c r="N3">
         <v>131.049072</v>
       </c>
       <c r="O3">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="P3">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="Q3">
-        <v>196.774535349392</v>
+        <v>355.281052597856</v>
       </c>
       <c r="R3">
-        <v>1770.970818144528</v>
+        <v>3197.529473380704</v>
       </c>
       <c r="S3">
-        <v>0.09701795417963557</v>
+        <v>0.1141703664550796</v>
       </c>
       <c r="T3">
-        <v>0.09701795417963559</v>
+        <v>0.1141703664550796</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4.504599666666667</v>
+        <v>8.133160666666667</v>
       </c>
       <c r="H4">
-        <v>13.513799</v>
+        <v>24.399482</v>
       </c>
       <c r="I4">
-        <v>0.2870666703033801</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="J4">
-        <v>0.2870666703033801</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.24645366666667</v>
+        <v>36.64360566666667</v>
       </c>
       <c r="N4">
-        <v>102.739361</v>
+        <v>109.930817</v>
       </c>
       <c r="O4">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192034</v>
       </c>
       <c r="P4">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192035</v>
       </c>
       <c r="Q4">
-        <v>154.2665637713821</v>
+        <v>298.0283322929771</v>
       </c>
       <c r="R4">
-        <v>1388.399073942439</v>
+        <v>2682.254990636794</v>
       </c>
       <c r="S4">
-        <v>0.07605977261665031</v>
+        <v>0.09577207583428211</v>
       </c>
       <c r="T4">
-        <v>0.07605977261665033</v>
+        <v>0.09577207583428213</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>4.504599666666667</v>
+        <v>8.133160666666667</v>
       </c>
       <c r="H5">
-        <v>13.513799</v>
+        <v>24.399482</v>
       </c>
       <c r="I5">
-        <v>0.2870666703033801</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="J5">
-        <v>0.2870666703033801</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.657557</v>
+        <v>16.90969166666667</v>
       </c>
       <c r="N5">
-        <v>52.972671</v>
+        <v>50.729075</v>
       </c>
       <c r="O5">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="P5">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="Q5">
-        <v>79.54022537634766</v>
+        <v>137.5292391487945</v>
       </c>
       <c r="R5">
-        <v>715.862028387129</v>
+        <v>1237.76315233915</v>
       </c>
       <c r="S5">
-        <v>0.03921660862925385</v>
+        <v>0.04419533075882612</v>
       </c>
       <c r="T5">
-        <v>0.03921660862925386</v>
+        <v>0.04419533075882612</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>22.440219</v>
       </c>
       <c r="I6">
-        <v>0.476686011772755</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="J6">
-        <v>0.476686011772755</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.66677566666667</v>
+        <v>50.86142466666666</v>
       </c>
       <c r="N6">
-        <v>101.000327</v>
+        <v>152.584274</v>
       </c>
       <c r="O6">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613803</v>
       </c>
       <c r="P6">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613804</v>
       </c>
       <c r="Q6">
-        <v>251.8299396612903</v>
+        <v>380.4471693906673</v>
       </c>
       <c r="R6">
-        <v>2266.469456951613</v>
+        <v>3424.024524516006</v>
       </c>
       <c r="S6">
-        <v>0.1241625371074466</v>
+        <v>0.1222575547683242</v>
       </c>
       <c r="T6">
-        <v>0.1241625371074466</v>
+        <v>0.1222575547683242</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>22.440219</v>
       </c>
       <c r="I7">
-        <v>0.476686011772755</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="J7">
-        <v>0.476686011772755</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.68302400000001</v>
+        <v>43.683024</v>
       </c>
       <c r="N7">
         <v>131.049072</v>
       </c>
       <c r="O7">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="P7">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="Q7">
-        <v>326.7522083807521</v>
+        <v>326.752208380752</v>
       </c>
       <c r="R7">
-        <v>2940.769875426769</v>
+        <v>2940.769875426768</v>
       </c>
       <c r="S7">
-        <v>0.1611023028182517</v>
+        <v>0.105002558110137</v>
       </c>
       <c r="T7">
-        <v>0.1611023028182517</v>
+        <v>0.105002558110137</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>22.440219</v>
       </c>
       <c r="I8">
-        <v>0.476686011772755</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="J8">
-        <v>0.476686011772755</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.24645366666667</v>
+        <v>36.64360566666667</v>
       </c>
       <c r="N8">
-        <v>102.739361</v>
+        <v>109.930817</v>
       </c>
       <c r="O8">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192034</v>
       </c>
       <c r="P8">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192035</v>
       </c>
       <c r="Q8">
-        <v>256.1659734177844</v>
+        <v>274.0968453698803</v>
       </c>
       <c r="R8">
-        <v>2305.493760760059</v>
+        <v>2466.871608328923</v>
       </c>
       <c r="S8">
-        <v>0.1263003804191432</v>
+        <v>0.08808163861043848</v>
       </c>
       <c r="T8">
-        <v>0.1263003804191432</v>
+        <v>0.08808163861043847</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>22.440219</v>
       </c>
       <c r="I9">
-        <v>0.476686011772755</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="J9">
-        <v>0.476686011772755</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.657557</v>
+        <v>16.90969166666667</v>
       </c>
       <c r="N9">
-        <v>52.972671</v>
+        <v>50.729075</v>
       </c>
       <c r="O9">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="P9">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="Q9">
-        <v>132.079815361661</v>
+        <v>126.4857280741583</v>
       </c>
       <c r="R9">
-        <v>1188.718338254949</v>
+        <v>1138.371552667425</v>
       </c>
       <c r="S9">
-        <v>0.06512079142791352</v>
+        <v>0.04064647360159098</v>
       </c>
       <c r="T9">
-        <v>0.06512079142791352</v>
+        <v>0.04064647360159098</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.707151333333333</v>
+        <v>5.398902333333333</v>
       </c>
       <c r="H10">
-        <v>11.121454</v>
+        <v>16.196707</v>
       </c>
       <c r="I10">
-        <v>0.2362473179238649</v>
+        <v>0.2569420992389033</v>
       </c>
       <c r="J10">
-        <v>0.2362473179238649</v>
+        <v>0.2569420992389034</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.66677566666667</v>
+        <v>50.86142466666666</v>
       </c>
       <c r="N10">
-        <v>101.000327</v>
+        <v>152.584274</v>
       </c>
       <c r="O10">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613803</v>
       </c>
       <c r="P10">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613804</v>
       </c>
       <c r="Q10">
-        <v>124.8078323017176</v>
+        <v>274.5958643095242</v>
       </c>
       <c r="R10">
-        <v>1123.270490715458</v>
+        <v>2471.362778785718</v>
       </c>
       <c r="S10">
-        <v>0.06153540413147307</v>
+        <v>0.08824199947063793</v>
       </c>
       <c r="T10">
-        <v>0.06153540413147309</v>
+        <v>0.08824199947063796</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.707151333333333</v>
+        <v>5.398902333333333</v>
       </c>
       <c r="H11">
-        <v>11.121454</v>
+        <v>16.196707</v>
       </c>
       <c r="I11">
-        <v>0.2362473179238649</v>
+        <v>0.2569420992389033</v>
       </c>
       <c r="J11">
-        <v>0.2362473179238649</v>
+        <v>0.2569420992389034</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.68302400000001</v>
+        <v>43.683024</v>
       </c>
       <c r="N11">
         <v>131.049072</v>
       </c>
       <c r="O11">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="P11">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="Q11">
-        <v>161.939580665632</v>
+        <v>235.840380200656</v>
       </c>
       <c r="R11">
-        <v>1457.456225990688</v>
+        <v>2122.563421805904</v>
       </c>
       <c r="S11">
-        <v>0.0798428861183243</v>
+        <v>0.07578783736292243</v>
       </c>
       <c r="T11">
-        <v>0.07984288611832431</v>
+        <v>0.07578783736292245</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.707151333333333</v>
+        <v>5.398902333333333</v>
       </c>
       <c r="H12">
-        <v>11.121454</v>
+        <v>16.196707</v>
       </c>
       <c r="I12">
-        <v>0.2362473179238649</v>
+        <v>0.2569420992389033</v>
       </c>
       <c r="J12">
-        <v>0.2362473179238649</v>
+        <v>0.2569420992389034</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.24645366666667</v>
+        <v>36.64360566666667</v>
       </c>
       <c r="N12">
-        <v>102.739361</v>
+        <v>109.930817</v>
       </c>
       <c r="O12">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192034</v>
       </c>
       <c r="P12">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192035</v>
       </c>
       <c r="Q12">
-        <v>126.9567863723216</v>
+        <v>197.8352481355132</v>
       </c>
       <c r="R12">
-        <v>1142.611077350894</v>
+        <v>1780.517233219619</v>
       </c>
       <c r="S12">
-        <v>0.06259492703765507</v>
+        <v>0.06357480257448285</v>
       </c>
       <c r="T12">
-        <v>0.06259492703765508</v>
+        <v>0.06357480257448286</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.707151333333333</v>
+        <v>5.398902333333333</v>
       </c>
       <c r="H13">
-        <v>11.121454</v>
+        <v>16.196707</v>
       </c>
       <c r="I13">
-        <v>0.2362473179238649</v>
+        <v>0.2569420992389033</v>
       </c>
       <c r="J13">
-        <v>0.2362473179238649</v>
+        <v>0.2569420992389034</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.657557</v>
+        <v>16.90969166666667</v>
       </c>
       <c r="N13">
-        <v>52.972671</v>
+        <v>50.729075</v>
       </c>
       <c r="O13">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="P13">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="Q13">
-        <v>65.45923597595934</v>
+        <v>91.29377379511389</v>
       </c>
       <c r="R13">
-        <v>589.133123783634</v>
+        <v>821.643964156025</v>
       </c>
       <c r="S13">
-        <v>0.03227410063641244</v>
+        <v>0.02933745983086011</v>
       </c>
       <c r="T13">
-        <v>0.03227410063641244</v>
+        <v>0.02933745983086012</v>
       </c>
     </row>
   </sheetData>
